--- a/public/sample_uploads/fund_ratios_update.xlsx
+++ b/public/sample_uploads/fund_ratios_update.xlsx
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">Fund *</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t xml:space="preserve">End Date *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
   </si>
   <si>
     <t xml:space="preserve">Note</t>
@@ -442,10 +445,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -478,58 +481,65 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>-0.4521</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>2.4273</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J3" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
